--- a/planilha/aulasExperimentais.xlsx
+++ b/planilha/aulasExperimentais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teste\Documents\GitHub\BotZap\planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teste\Documents\GitHub\botZapLivre\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB9F923-E0E2-43DC-BE8F-2A9BF24775E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42657573-3246-44B4-8049-E7A6B708B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +414,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B2" s="3">
         <v>7499990520</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B3" s="3">
         <v>7499990520</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B4" s="3">
         <v>7499990520</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B5" s="3">
         <v>7499990520</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B6" s="3">
         <v>7499990520</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B7" s="3">
         <v>7499990520</v>

--- a/planilha/aulasExperimentais.xlsx
+++ b/planilha/aulasExperimentais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teste\Documents\GitHub\botZapLivre\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42657573-3246-44B4-8049-E7A6B708B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0067C200-951C-4D51-AE69-27C2E313E195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +414,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B2" s="3">
         <v>7499990520</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B3" s="3">
         <v>7499990520</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B4" s="3">
         <v>7499990520</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B5" s="3">
         <v>7499990520</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B6" s="3">
         <v>7499990520</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B7" s="3">
         <v>7499990520</v>
